--- a/jpcore-r4/feature/kohe-obs-microbio-sliceTest/StructureDefinition-jp-practitioner.xlsx
+++ b/jpcore-r4/feature/kohe-obs-microbio-sliceTest/StructureDefinition-jp-practitioner.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2811" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2816" uniqueCount="488">
   <si>
     <t>Property</t>
   </si>
@@ -539,10 +539,13 @@
     <t>Practitioner.telecom.system</t>
   </si>
   <si>
-    <t>電話 | ファックス | メール | ページャー | URL | SMS | その他</t>
+    <t>phone | fax | email | pager | url | sms | other 【JP_Patient.telecomを参照。】</t>
   </si>
   <si>
     <t>連絡先用通信フォーム - どの通信システムを使用するには接点が必要ですか。</t>
+  </si>
+  <si>
+    <t>連絡先の種別をValueSet(ContactPointSystem)より選択する。  　- phone : 電話　- fax : Fax 　- email : 電子メール　- pager : ポケットベル　- url : 電話、ファックス、ポケットベル、または電子メールアドレスではなく、URLとして表される連絡先。これはWebサイト、ブログ、Skype、Twitter、Facebookなどのさまざまな機関または個人の連絡先を対象としている。電子メールアドレスには使用しないこと。　- sms : SMSメッセージの送信に使用できる連絡先（携帯電話、一部の固定電話など）  　- other : 電話、Fax、ポケットベル、または電子メールアドレスではなく、URLとして表現できない連絡先。例：内部メールアドレス。これは、URLとして表現できる連絡先（Skype、Twitter、Facebookなど）には使用しないこと。</t>
   </si>
   <si>
     <t>required</t>
@@ -583,7 +586,7 @@
     <t>指定されたコミュニケーションシステムに意味がある形式での実際の連絡先の詳細（電話番号または電子メールアドレス）を提供してください。</t>
   </si>
   <si>
-    <t>"電話番号の内線や、その連絡先の使用に関するメモなど、追加のテキストデータが値に含まれる場合があります。"</t>
+    <t>連絡先の番号やメールアドレス</t>
   </si>
   <si>
     <t>Need to support legacy numbers that are not in a tightly controlled format.</t>
@@ -604,13 +607,18 @@
     <t>Practitioner.telecom.use</t>
   </si>
   <si>
-    <t>「家 | 仕事 | 一時的 | 古い | 携帯電話 - この連絡先の目的」(Ie | Shigoto | Ichijiteki | Furui | Keitaidenwa - Kono renrakusaki no mokuteki)</t>
+    <t>home | work | temp | old | mobile - 連絡先の用途等 【JP_Patient.telecomを参照。】</t>
   </si>
   <si>
     <t>「接点の目的を特定する。」(Setten no mokuteki wo tokutei suru.)</t>
   </si>
   <si>
-    <t>「アプリケーションは、一時的なものまたは古いものであると明示しない限り、連絡先が最新であると想定できます。」</t>
+    <t>患者の連絡先の種別をValueSet(ContactPointUse)より選択する。  一時的なものまたは古いものであると明示しない限り、連絡先が最新とみなされる。
+　- home : 自宅
+　- work : 職場
+　- temp : 一時的
+　- old : 以前の
+　- mobile : モバイル機器</t>
   </si>
   <si>
     <t>Need to track the way a person uses this contact, so a user can choose which is appropriate for their purpose.</t>
@@ -647,7 +655,7 @@
     <t>「一連のコンタクトを使う上で好ましい順序を指定します。ランク値が低いContactPointsの方が、ランク値が高いものよりも優先されます。」</t>
   </si>
   <si>
-    <t>「ランクは、インスタンス内で連絡先が表示される順序に必ずしも従わないことに注意してください。」</t>
+    <t>連絡先の使用順序（1 = 最高）</t>
   </si>
   <si>
     <t>ContactPoint.rank</t>
@@ -666,8 +674,7 @@
     <t>「接点が使用されていた/現在使用中である時間期間」</t>
   </si>
   <si>
-    <t>期間は時間の範囲を指定する。使用状況は、範囲全体が適用されるか（たとえば、「患者はこの時間範囲で入院していた」）、範囲から1つの値が適用されるか（たとえば、「この2回の間に患者に与える」）を指定する。
-期間は、時間間隔（経過時間の測定値）には使用されない。 [Duration]（datatypes.html＃Duration）を参照のこと。</t>
+    <t>連絡先が使用されていた/されている期間</t>
   </si>
   <si>
     <t>ContactPoint.period</t>
@@ -693,8 +700,11 @@
 勤務先の住所は通常、役割に依存するため、このプロパティには入力されない。</t>
   </si>
   <si>
-    <t>PractitionerRoleにアドレス値が付いていないのは、この目的のためにロケーションプロパティを使用することが想定されているからである（アドレスが付いている）。
-要素の説明は、JP_Patient.address を参照。</t>
+    <t>患者は、異なる用途または適用可能な期間で複数の住所を持っている可能性がある。
+【JP Core仕様】FHIRデータ型仕様に従って、以下の案とした。  
+　- 住所が構造化されている場合、住所パート Address.country、Address.postalcode、Address.state、Address.city、Address.line に分割して記載する
+　- 住所が構造化されていない場合は、Address.text に記述する
+　- 各住所パートとtext は、両方存在してもよい</t>
   </si>
   <si>
     <t>医療従事者の自宅/メールアドレスは、従業員管理のために必要とされることが多く、また、一部のロスタリングサービスでは、開始点（医療従事者の自宅）が計算に使用されることがある。</t>
@@ -730,13 +740,19 @@
     <t>Practitioner.address.use</t>
   </si>
   <si>
-    <t>ホーム|作業|温度|古い|請求 - この住所の目的 / home | work | temp | old | billing - purpose of this address</t>
-  </si>
-  <si>
-    <t>このアドレスの目的。 / The purpose of this address.</t>
-  </si>
-  <si>
-    <t>アプリケーションは、一時的または古いものであると明示的に言わない限り、住所が最新であると想定できます。 / Applications can assume that an address is current unless it explicitly says that it is temporary or old.</t>
+    <t>home | work | temp | old | billing - purpose of this address　住所の用途 【JP_Patient.address参照】</t>
+  </si>
+  <si>
+    <t>The purpose of this address.
+住所の用途</t>
+  </si>
+  <si>
+    <t>住所の用途をValueSet(AddressUse)より選択する。  
+- home : 自宅
+- work : 職場
+- temp : 一時的
+- old : 以前の
+- billing : 請求書、インボイス、領収書などの送付用</t>
   </si>
   <si>
     <t>多くのリストから適切なアドレスを選択できるようにします。 / Allows an appropriate address to be chosen from a list of many.</t>
@@ -760,13 +776,16 @@
     <t>Practitioner.address.type</t>
   </si>
   <si>
-    <t>郵便|物理|両方 / postal | physical | both</t>
-  </si>
-  <si>
-    <t>物理的な住所（アクセスできるもの）と郵送先住所（例：POボックスやアドレスのケア）を区別します。ほとんどのアドレスは両方です。 / Distinguishes between physical addresses (those you can visit) and mailing addresses (e.g. PO Boxes and care-of addresses). Most addresses are both.</t>
-  </si>
-  <si>
-    <t>住所の定義は、「住所は物理的な場所ではなく、郵便アドレスを記述することを目的としている」と述べています。ただし、多くのアプリケーションは、住所が訪問できる場所であるという二重の目的を持っているかどうか、有効な配達先であるかどうかを追跡し、郵便アドレスは物理的な場所のプロキシとしてよく使用されます（[場所]（場所を参照してください。HTML＃）リソース）。 / The definition of Address states that "address is intended to describe postal addresses, not physical locations". However, many applications track whether an address has a dual purpose of being a location that can be visited as well as being a valid delivery destination, and Postal addresses are often used as proxies for physical locations (also see the [Location](http://hl7.org/fhir/R4/location.html#) resource).</t>
+    <t>postal | physical | both 【JP_Patient.address参照】</t>
+  </si>
+  <si>
+    <t>住所（訪問できる住所）と郵送先住所（私書箱や気付住所など）を区別する。ほとんどのアドレスは両方。</t>
+  </si>
+  <si>
+    <t>住所の種類をValueSet(AddressType)より選択する。  
+- postal : 郵送先 - 私書箱、気付の住所
+- physical : 訪れることのできる物理的な住所
+- both : postalとphysicalの両方</t>
   </si>
   <si>
     <t>アドレスのタイプ（物理 /郵便）。 / The type of an address (physical / postal).</t>
@@ -784,18 +803,26 @@
     <t>Practitioner.address.text</t>
   </si>
   <si>
-    <t>アドレスのテキスト表現 / Text representation of the address</t>
-  </si>
-  <si>
-    <t>アドレス全体を指定する必要があるため、例えば郵便ラベルで。これは、特定の部分の代わりに、または特定の部分と同様に提供される場合があります。 / Specifies the entire address as it should be displayed e.g. on a postal label. This may be provided instead of or as well as the specific parts.</t>
-  </si>
-  <si>
-    <t>テキスト表現とパーツの両方を提供できます。アドレスを更新するアプリケーションは、テキストとパーツの両方が存在する場合、一部に見つからないテキストにコンテンツが含まれていないことを保証するものとします。 / Can provide both a text representation and parts. Applications updating an address SHALL ensure that  when both text and parts are present,  no content is included in the text that isn't found in a part.</t>
+    <t>住所のテキスト表現 【JP_Patient.address参照】</t>
+  </si>
+  <si>
+    <t>表示するアドレス全体を指定する  
+例：郵便ラベル。これは、特定の部品の代わりに、または特定の部品と同様に提供される場合がある。</t>
+  </si>
+  <si>
+    <t>テキスト表現とパーツの両方を提供できる。アドレスを更新するアプリケーションは、テキストとパーツの両方が存在する場合、パーツにないコンテンツはテキストに含まれないようにする必要がある。  
+- 住所を(都道府県や市町村などに)分離して管理していない場合は、textに入れる。  
+- 住所を(都道府県や市町村などに)分離して管理している場合でも、まとめてtextに入れること。  
+- 郵便番号は含めない。  
+例：東京都文京区本郷7-3-1</t>
   </si>
   <si>
     <t>レンダリング可能で、不コード化されていないフォーム。 / A renderable, unencoded form.</t>
   </si>
   <si>
+    <t>東京都文京区本郷7-3-1</t>
+  </si>
+  <si>
     <t>Address.text</t>
   </si>
   <si>
@@ -808,10 +835,21 @@
     <t>Practitioner.address.line</t>
   </si>
   <si>
-    <t>ストリート名、番号、方向＆P.O。ボックスなど / Street name, number, direction &amp; P.O. Box etc.</t>
-  </si>
-  <si>
-    <t>このコンポーネントには、家番号、アパート番号、ストリート名、通りの方向、P.O。ボックス番号、配信ヒント、および同様のアドレス情報。 / This component contains the house number, apartment number, street name, street direction,  P.O. Box number, delivery hints, and similar address information.</t>
+    <t>ストリート名や番地など 【JP_Patient.address参照】</t>
+  </si>
+  <si>
+    <t>このコンポーネントには、家番号、アパート番号、通りの名前、通りの方向、P.O。が含まれる。ボックス番号、配達のヒント、および同様の住所情報など。</t>
+  </si>
+  <si>
+    <t>【JP Core仕様】state要素とcity要素で表現しなかったそのあとの住所部分を番地以降の部分も含めてすべていれる。  
+英数字は半角でも全角でもよい。文字列の前後および途中に空白文字を含めないこと。  
+繰り返し要素が許されているので、区切りを表現したい場合には、複数要素に分けて格納してもよい。  
+例：本郷7-3-1  
+例：大字石神９７６  
+例：藤崎町大字藤崎字西村1-2 春山荘201号室</t>
+  </si>
+  <si>
+    <t>本郷7-3-1</t>
   </si>
   <si>
     <t>Address.line</t>
@@ -833,10 +871,16 @@
 </t>
   </si>
   <si>
-    <t>都市、町などの名前。 / Name of city, town etc.</t>
-  </si>
-  <si>
-    <t>都市、町、郊外、村、またはその他のコミュニティまたは配達センターの名前。 / The name of the city, town, suburb, village or other community or delivery center.</t>
+    <t>市区町村名 【JP_Patient.address参照】</t>
+  </si>
+  <si>
+    <t>n市、町、郊外、村、その他のコミュニティまたは配達センターの名前。</t>
+  </si>
+  <si>
+    <t>１MBを超えないこと。  【JP Core仕様】郡市区町村部分だけを「郡」「市」「区」「町」「村」などの文字を含めて設定する。 例：文京区</t>
+  </si>
+  <si>
+    <t>文京区</t>
   </si>
   <si>
     <t>Address.city</t>
@@ -858,13 +902,13 @@
 </t>
   </si>
   <si>
-    <t>地区名（別名郡） / District name (aka county)</t>
+    <t>地区名 【JP_Patient.address参照】</t>
   </si>
   <si>
     <t>管理エリア（郡）の名前。 / The name of the administrative area (county).</t>
   </si>
   <si>
-    <t>地区は郡として知られていることもありますが、一部の地域では「郡」は都市（自治体）の代わりに使用されているため、代わりに郡の名前を都市で伝える必要があります。 / District is sometimes known as county, but in some regions 'county' is used in place of city (municipality), so county name should be conveyed in city instead.</t>
+    <t>【JP Core仕様】日本の住所では使用しない。</t>
   </si>
   <si>
     <t>Address.district</t>
@@ -883,10 +927,16 @@
 Territory</t>
   </si>
   <si>
-    <t>国のサブユニット（略語OK） / Sub-unit of country (abbreviations ok)</t>
-  </si>
-  <si>
-    <t>連邦政府が組織された国に限られた主権を持つ国のサブユニット。コードが一般的に使用されている場合（たとえば、2文字の状態コードなど）、コードを使用できます。 / Sub-unit of a country with limited sovereignty in a federally organized country. A code may be used if codes are in common use (e.g. US 2 letter state codes).</t>
+    <t>国の次の地区単位 【JP_Patient.address参照】</t>
+  </si>
+  <si>
+    <t>国の主権が制限されている国のサブユニット。日本の場合、都道府県名。</t>
+  </si>
+  <si>
+    <t>１MBを超えないこと。  都道府県名。「都」「道」「府」「県」のそれぞれの文字を含める。 例：東京都</t>
+  </si>
+  <si>
+    <t>東京都</t>
   </si>
   <si>
     <t>Address.state</t>
@@ -908,12 +958,18 @@
 </t>
   </si>
   <si>
-    <t>エリアの郵便番号 / Postal code for area</t>
+    <t>郵便番号 【JP_Patient.address参照】</t>
   </si>
   <si>
     <t>郵便サービスによって定義された地域を指定する郵便番号。 / A postal code designating a region defined by the postal service.</t>
   </si>
   <si>
+    <t>郵便番号。日本の郵便番号の場合には3桁数字とハイフン1文字と4桁数字からなる半角８文字、または最初の3桁だけの3文字のいずれかとする。 例：113-8655</t>
+  </si>
+  <si>
+    <t>113-8655</t>
+  </si>
+  <si>
     <t>Address.postalCode</t>
   </si>
   <si>
@@ -929,13 +985,13 @@
     <t>Practitioner.address.country</t>
   </si>
   <si>
-    <t>国（例えばISO 3166 2または3文字のコードにすることができます） / Country (e.g. can be ISO 3166 2 or 3 letter code)</t>
-  </si>
-  <si>
-    <t>国 - 一般的に理解されるか、一般的に受け入れられている国。 / Country - a nation as commonly understood or generally accepted.</t>
-  </si>
-  <si>
-    <t>ISO 3166 3文字コードは、人間の読み取り可能な国名の代わりに使用できます。 / ISO 3166 3 letter codes can be used in place of a human readable country name.</t>
+    <t>国名またはISO 3166コード　(ISO 3166 2 or 3文字こーど)</t>
+  </si>
+  <si>
+    <t>国-一般的に理解されている、または一般的に受け入れられている国の国名かコード。</t>
+  </si>
+  <si>
+    <t>ISO 3166 3文字コードは、人間が読める国名の代わりに使用する。  ISO 3166の2文字または3文字のコード.  日本であれば、jpまたはjpn</t>
   </si>
   <si>
     <t>Address.country</t>
@@ -953,13 +1009,13 @@
     <t>Practitioner.address.period</t>
   </si>
   <si>
-    <t>アドレスが使用されていた期間 / Time period when address was/is in use</t>
-  </si>
-  <si>
-    <t>アドレスが使用されていた期間。 / Time period when address was/is in use.</t>
-  </si>
-  <si>
-    <t>アドレスを歴史的な文脈に配置できるようにします。 / Allows addresses to be placed in historical context.</t>
+    <t>住所が使用されていた（いる）期間</t>
+  </si>
+  <si>
+    <t>住所が使用されていた/されている期間。 期間は時間の範囲を指定する。使用状況はその期間全体に適用されるか、範囲から1つの値が適用される。  期間は、時間間隔（経過時間の測定値）には使用されない。</t>
+  </si>
+  <si>
+    <t>アドレスを履歴上の文脈に配置できるようにします。 / Allows addresses to be placed in historical context.</t>
   </si>
   <si>
     <t>Address.period</t>
@@ -1239,7 +1295,7 @@
     <t>Practitioner.qualification.identifier.use</t>
   </si>
   <si>
-    <t>通常|公式|温度|セカンダリ|古い（知られている場合） / usual | official | temp | secondary | old (If known)</t>
+    <t>通常|公式|一時的|セカンダリ|古い（知られている場合） / usual | official | temp | secondary | old (If known)</t>
   </si>
   <si>
     <t>この識別子の目的。 / The purpose of this identifier.</t>
@@ -1911,7 +1967,7 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="14.66796875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="1.04296875" customWidth="true" bestFit="true"/>
@@ -3685,7 +3741,9 @@
       <c r="M16" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="N16" s="2"/>
+      <c r="N16" t="s" s="2">
+        <v>162</v>
+      </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
         <v>38</v>
@@ -3710,13 +3768,13 @@
         <v>38</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>38</v>
@@ -3734,7 +3792,7 @@
         <v>38</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>39</v>
@@ -3743,19 +3801,19 @@
         <v>49</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>38</v>
@@ -3763,10 +3821,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3792,16 +3850,16 @@
         <v>145</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>38</v>
@@ -3850,7 +3908,7 @@
         <v>38</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>39</v>
@@ -3862,16 +3920,16 @@
         <v>38</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>38</v>
@@ -3879,10 +3937,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3908,16 +3966,16 @@
         <v>69</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>38</v>
@@ -3942,13 +4000,13 @@
         <v>38</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>38</v>
@@ -3966,7 +4024,7 @@
         <v>38</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>39</v>
@@ -3978,16 +4036,16 @@
         <v>38</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>38</v>
@@ -3995,10 +4053,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4021,16 +4079,16 @@
         <v>50</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -4080,7 +4138,7 @@
         <v>38</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>39</v>
@@ -4092,7 +4150,7 @@
         <v>38</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>149</v>
@@ -4109,10 +4167,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4135,16 +4193,16 @@
         <v>50</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -4194,7 +4252,7 @@
         <v>38</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>39</v>
@@ -4206,16 +4264,16 @@
         <v>38</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>38</v>
@@ -4223,10 +4281,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4249,19 +4307,19 @@
         <v>50</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>38</v>
@@ -4310,7 +4368,7 @@
         <v>38</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>39</v>
@@ -4325,13 +4383,13 @@
         <v>61</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>38</v>
@@ -4339,10 +4397,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4368,10 +4426,10 @@
         <v>145</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -4451,10 +4509,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4483,7 +4541,7 @@
         <v>96</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="N23" t="s" s="2">
         <v>98</v>
@@ -4527,7 +4585,7 @@
         <v>154</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AD23" t="s" s="2">
         <v>38</v>
@@ -4565,10 +4623,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4594,16 +4652,16 @@
         <v>69</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>38</v>
@@ -4628,13 +4686,13 @@
         <v>38</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>38</v>
@@ -4652,7 +4710,7 @@
         <v>38</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>39</v>
@@ -4667,13 +4725,13 @@
         <v>61</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>38</v>
@@ -4681,10 +4739,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4710,13 +4768,13 @@
         <v>69</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -4742,13 +4800,13 @@
         <v>38</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>38</v>
@@ -4766,7 +4824,7 @@
         <v>38</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>39</v>
@@ -4781,10 +4839,10 @@
         <v>61</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>38</v>
@@ -4795,10 +4853,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4824,16 +4882,16 @@
         <v>145</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>38</v>
@@ -4846,7 +4904,7 @@
         <v>38</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>38</v>
+        <v>244</v>
       </c>
       <c r="U26" t="s" s="2">
         <v>38</v>
@@ -4882,7 +4940,7 @@
         <v>38</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>39</v>
@@ -4897,10 +4955,10 @@
         <v>61</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>38</v>
@@ -4911,10 +4969,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4940,12 +4998,14 @@
         <v>145</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="N27" s="2"/>
+        <v>250</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>251</v>
+      </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>38</v>
@@ -4958,7 +5018,7 @@
         <v>38</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>38</v>
+        <v>252</v>
       </c>
       <c r="U27" t="s" s="2">
         <v>38</v>
@@ -4994,7 +5054,7 @@
         <v>38</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>39</v>
@@ -5009,13 +5069,13 @@
         <v>61</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>38</v>
@@ -5023,14 +5083,14 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
@@ -5052,12 +5112,14 @@
         <v>145</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="N28" s="2"/>
+        <v>260</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>261</v>
+      </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>38</v>
@@ -5070,7 +5132,7 @@
         <v>38</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>38</v>
+        <v>262</v>
       </c>
       <c r="U28" t="s" s="2">
         <v>38</v>
@@ -5106,7 +5168,7 @@
         <v>38</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>39</v>
@@ -5121,13 +5183,13 @@
         <v>61</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>38</v>
@@ -5135,14 +5197,14 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
@@ -5164,13 +5226,13 @@
         <v>145</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5220,7 +5282,7 @@
         <v>38</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>39</v>
@@ -5235,10 +5297,10 @@
         <v>61</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>38</v>
@@ -5249,14 +5311,14 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
@@ -5278,12 +5340,14 @@
         <v>145</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="N30" s="2"/>
+        <v>278</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>279</v>
+      </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>38</v>
@@ -5296,7 +5360,7 @@
         <v>38</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>38</v>
+        <v>280</v>
       </c>
       <c r="U30" t="s" s="2">
         <v>38</v>
@@ -5332,7 +5396,7 @@
         <v>38</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>39</v>
@@ -5347,13 +5411,13 @@
         <v>61</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>38</v>
@@ -5361,14 +5425,14 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
@@ -5390,12 +5454,14 @@
         <v>145</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="N31" s="2"/>
+        <v>288</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>289</v>
+      </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>38</v>
@@ -5408,7 +5474,7 @@
         <v>38</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>38</v>
+        <v>290</v>
       </c>
       <c r="U31" t="s" s="2">
         <v>38</v>
@@ -5444,7 +5510,7 @@
         <v>38</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>39</v>
@@ -5459,13 +5525,13 @@
         <v>61</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>38</v>
@@ -5473,10 +5539,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5502,13 +5568,13 @@
         <v>145</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5558,7 +5624,7 @@
         <v>38</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>39</v>
@@ -5573,13 +5639,13 @@
         <v>61</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>38</v>
@@ -5587,10 +5653,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>293</v>
+        <v>303</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>293</v>
+        <v>303</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5613,19 +5679,19 @@
         <v>50</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>201</v>
+        <v>305</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>38</v>
@@ -5674,7 +5740,7 @@
         <v>38</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>39</v>
@@ -5689,13 +5755,13 @@
         <v>61</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>38</v>
@@ -5703,10 +5769,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5732,14 +5798,14 @@
         <v>69</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>38</v>
@@ -5764,13 +5830,13 @@
         <v>38</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>38</v>
@@ -5788,7 +5854,7 @@
         <v>38</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>39</v>
@@ -5803,13 +5869,13 @@
         <v>61</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>38</v>
@@ -5817,10 +5883,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>308</v>
+        <v>318</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>308</v>
+        <v>318</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5843,17 +5909,17 @@
         <v>50</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>309</v>
+        <v>319</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>311</v>
+        <v>321</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>38</v>
@@ -5902,7 +5968,7 @@
         <v>38</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>308</v>
+        <v>318</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>39</v>
@@ -5917,13 +5983,13 @@
         <v>61</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>38</v>
@@ -5931,10 +5997,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5957,19 +6023,19 @@
         <v>38</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>316</v>
+        <v>326</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>317</v>
+        <v>327</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>318</v>
+        <v>328</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>319</v>
+        <v>329</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>38</v>
@@ -6018,7 +6084,7 @@
         <v>38</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>39</v>
@@ -6036,10 +6102,10 @@
         <v>38</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>322</v>
+        <v>332</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>38</v>
@@ -6047,10 +6113,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>323</v>
+        <v>333</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>323</v>
+        <v>333</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6073,16 +6139,16 @@
         <v>38</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>325</v>
+        <v>335</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -6120,7 +6186,7 @@
         <v>38</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>328</v>
+        <v>338</v>
       </c>
       <c r="AC37" s="2"/>
       <c r="AD37" t="s" s="2">
@@ -6130,7 +6196,7 @@
         <v>156</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>323</v>
+        <v>333</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>39</v>
@@ -6145,13 +6211,13 @@
         <v>61</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>329</v>
+        <v>339</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>331</v>
+        <v>341</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>38</v>
@@ -6159,10 +6225,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>332</v>
+        <v>342</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>332</v>
+        <v>342</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6188,10 +6254,10 @@
         <v>145</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6271,10 +6337,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>333</v>
+        <v>343</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>333</v>
+        <v>343</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6303,7 +6369,7 @@
         <v>96</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="N39" t="s" s="2">
         <v>98</v>
@@ -6385,14 +6451,14 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>334</v>
+        <v>344</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>334</v>
+        <v>344</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>335</v>
+        <v>345</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -6414,10 +6480,10 @@
         <v>95</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>336</v>
+        <v>346</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>337</v>
+        <v>347</v>
       </c>
       <c r="N40" t="s" s="2">
         <v>98</v>
@@ -6472,7 +6538,7 @@
         <v>38</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>338</v>
+        <v>348</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>39</v>
@@ -6501,10 +6567,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6530,14 +6596,14 @@
         <v>107</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>38</v>
@@ -6586,7 +6652,7 @@
         <v>38</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>39</v>
@@ -6604,7 +6670,7 @@
         <v>38</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>38</v>
@@ -6615,10 +6681,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6641,16 +6707,16 @@
         <v>38</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>345</v>
+        <v>355</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>347</v>
+        <v>357</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>348</v>
+        <v>358</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6676,13 +6742,13 @@
         <v>38</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>349</v>
+        <v>359</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>351</v>
+        <v>361</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>38</v>
@@ -6700,7 +6766,7 @@
         <v>38</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>49</v>
@@ -6718,10 +6784,10 @@
         <v>38</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>38</v>
@@ -6729,10 +6795,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>353</v>
+        <v>363</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>353</v>
+        <v>363</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6755,19 +6821,19 @@
         <v>38</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>354</v>
+        <v>364</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>355</v>
+        <v>365</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>356</v>
+        <v>366</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>38</v>
@@ -6816,7 +6882,7 @@
         <v>38</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>353</v>
+        <v>363</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>39</v>
@@ -6834,10 +6900,10 @@
         <v>38</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>359</v>
+        <v>369</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>38</v>
@@ -6845,10 +6911,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6871,16 +6937,16 @@
         <v>38</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>364</v>
+        <v>374</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -6930,7 +6996,7 @@
         <v>38</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>39</v>
@@ -6948,7 +7014,7 @@
         <v>38</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>365</v>
+        <v>375</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>38</v>
@@ -6959,13 +7025,13 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>366</v>
+        <v>376</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>323</v>
+        <v>333</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>367</v>
+        <v>377</v>
       </c>
       <c r="D45" t="s" s="2">
         <v>38</v>
@@ -6975,7 +7041,7 @@
         <v>39</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>368</v>
+        <v>378</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>38</v>
@@ -6987,13 +7053,13 @@
         <v>38</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -7044,7 +7110,7 @@
         <v>38</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>323</v>
+        <v>333</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>39</v>
@@ -7059,13 +7125,13 @@
         <v>61</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>329</v>
+        <v>339</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>331</v>
+        <v>341</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>38</v>
@@ -7073,10 +7139,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>332</v>
+        <v>342</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7102,10 +7168,10 @@
         <v>145</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7185,10 +7251,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>372</v>
+        <v>382</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>333</v>
+        <v>343</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7217,7 +7283,7 @@
         <v>96</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="N47" t="s" s="2">
         <v>98</v>
@@ -7299,14 +7365,14 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>334</v>
+        <v>344</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>335</v>
+        <v>345</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
@@ -7328,10 +7394,10 @@
         <v>95</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>336</v>
+        <v>346</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>337</v>
+        <v>347</v>
       </c>
       <c r="N48" t="s" s="2">
         <v>98</v>
@@ -7386,7 +7452,7 @@
         <v>38</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>338</v>
+        <v>348</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>39</v>
@@ -7415,10 +7481,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>374</v>
+        <v>384</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7444,14 +7510,14 @@
         <v>107</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>375</v>
+        <v>385</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>376</v>
+        <v>386</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
-        <v>377</v>
+        <v>387</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>38</v>
@@ -7500,7 +7566,7 @@
         <v>38</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>39</v>
@@ -7518,7 +7584,7 @@
         <v>38</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>38</v>
@@ -7529,10 +7595,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>379</v>
+        <v>389</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7558,10 +7624,10 @@
         <v>145</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7641,10 +7707,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>381</v>
+        <v>391</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7673,7 +7739,7 @@
         <v>96</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="N51" t="s" s="2">
         <v>98</v>
@@ -7717,7 +7783,7 @@
         <v>154</v>
       </c>
       <c r="AC51" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AD51" t="s" s="2">
         <v>38</v>
@@ -7755,10 +7821,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>382</v>
+        <v>392</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7784,16 +7850,16 @@
         <v>69</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>385</v>
+        <v>395</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>386</v>
+        <v>396</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>387</v>
+        <v>397</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>38</v>
@@ -7818,13 +7884,13 @@
         <v>38</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>388</v>
+        <v>398</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>38</v>
@@ -7842,7 +7908,7 @@
         <v>38</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>39</v>
@@ -7860,7 +7926,7 @@
         <v>92</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>391</v>
+        <v>401</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>38</v>
@@ -7871,10 +7937,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>392</v>
+        <v>402</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>393</v>
+        <v>403</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7897,19 +7963,19 @@
         <v>50</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>345</v>
+        <v>355</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>394</v>
+        <v>404</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>395</v>
+        <v>405</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>38</v>
@@ -7934,13 +8000,13 @@
         <v>38</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>38</v>
@@ -7958,7 +8024,7 @@
         <v>38</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>39</v>
@@ -7973,10 +8039,10 @@
         <v>61</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>402</v>
+        <v>412</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>391</v>
+        <v>401</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>38</v>
@@ -7987,10 +8053,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>403</v>
+        <v>413</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>404</v>
+        <v>414</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8016,16 +8082,16 @@
         <v>63</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>405</v>
+        <v>415</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>408</v>
+        <v>418</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>38</v>
@@ -8074,7 +8140,7 @@
         <v>38</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>409</v>
+        <v>419</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>39</v>
@@ -8089,13 +8155,13 @@
         <v>61</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>411</v>
+        <v>421</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>412</v>
+        <v>422</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>38</v>
@@ -8103,10 +8169,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>413</v>
+        <v>423</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>414</v>
+        <v>424</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8132,13 +8198,13 @@
         <v>145</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>415</v>
+        <v>425</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>416</v>
+        <v>426</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>417</v>
+        <v>427</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -8188,7 +8254,7 @@
         <v>38</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>418</v>
+        <v>428</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>39</v>
@@ -8203,13 +8269,13 @@
         <v>61</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>419</v>
+        <v>429</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>38</v>
@@ -8217,10 +8283,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>421</v>
+        <v>431</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8243,13 +8309,13 @@
         <v>50</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>423</v>
+        <v>433</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>424</v>
+        <v>434</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -8300,7 +8366,7 @@
         <v>38</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>425</v>
+        <v>435</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>39</v>
@@ -8315,13 +8381,13 @@
         <v>61</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>426</v>
+        <v>436</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>427</v>
+        <v>437</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>38</v>
@@ -8329,10 +8395,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>428</v>
+        <v>438</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>429</v>
+        <v>439</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8355,16 +8421,16 @@
         <v>50</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>430</v>
+        <v>440</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>431</v>
+        <v>441</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>432</v>
+        <v>442</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>433</v>
+        <v>443</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -8414,7 +8480,7 @@
         <v>38</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>434</v>
+        <v>444</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>39</v>
@@ -8429,13 +8495,13 @@
         <v>61</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>435</v>
+        <v>445</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>436</v>
+        <v>446</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>437</v>
+        <v>447</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>38</v>
@@ -8443,10 +8509,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>438</v>
+        <v>448</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8469,13 +8535,13 @@
         <v>38</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>345</v>
+        <v>355</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>439</v>
+        <v>449</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8487,7 +8553,7 @@
         <v>38</v>
       </c>
       <c r="S58" t="s" s="2">
-        <v>440</v>
+        <v>450</v>
       </c>
       <c r="T58" t="s" s="2">
         <v>38</v>
@@ -8502,11 +8568,11 @@
         <v>38</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Y58" s="2"/>
       <c r="Z58" t="s" s="2">
-        <v>441</v>
+        <v>451</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>38</v>
@@ -8524,7 +8590,7 @@
         <v>38</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>49</v>
@@ -8542,10 +8608,10 @@
         <v>38</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>38</v>
@@ -8553,10 +8619,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>442</v>
+        <v>452</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>353</v>
+        <v>363</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8579,17 +8645,17 @@
         <v>38</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>354</v>
+        <v>364</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>443</v>
+        <v>453</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
-        <v>444</v>
+        <v>454</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>38</v>
@@ -8638,7 +8704,7 @@
         <v>38</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>353</v>
+        <v>363</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>39</v>
@@ -8656,10 +8722,10 @@
         <v>38</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>359</v>
+        <v>369</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>38</v>
@@ -8667,10 +8733,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>445</v>
+        <v>455</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8693,13 +8759,13 @@
         <v>38</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>430</v>
+        <v>440</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>446</v>
+        <v>456</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -8750,7 +8816,7 @@
         <v>38</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>39</v>
@@ -8768,7 +8834,7 @@
         <v>38</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>365</v>
+        <v>375</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>38</v>
@@ -8779,13 +8845,13 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>447</v>
+        <v>457</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>323</v>
+        <v>333</v>
       </c>
       <c r="C61" t="s" s="2">
-        <v>448</v>
+        <v>458</v>
       </c>
       <c r="D61" t="s" s="2">
         <v>38</v>
@@ -8807,13 +8873,13 @@
         <v>38</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -8864,7 +8930,7 @@
         <v>38</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>323</v>
+        <v>333</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>39</v>
@@ -8879,13 +8945,13 @@
         <v>61</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>329</v>
+        <v>339</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>331</v>
+        <v>341</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>38</v>
@@ -8893,10 +8959,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>449</v>
+        <v>459</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>332</v>
+        <v>342</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8922,10 +8988,10 @@
         <v>145</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -9005,10 +9071,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>450</v>
+        <v>460</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>333</v>
+        <v>343</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9037,7 +9103,7 @@
         <v>96</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="N63" t="s" s="2">
         <v>98</v>
@@ -9119,14 +9185,14 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>451</v>
+        <v>461</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>334</v>
+        <v>344</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>335</v>
+        <v>345</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
@@ -9148,10 +9214,10 @@
         <v>95</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>336</v>
+        <v>346</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>337</v>
+        <v>347</v>
       </c>
       <c r="N64" t="s" s="2">
         <v>98</v>
@@ -9206,7 +9272,7 @@
         <v>38</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>338</v>
+        <v>348</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>39</v>
@@ -9235,10 +9301,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>452</v>
+        <v>462</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9264,14 +9330,14 @@
         <v>107</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>453</v>
+        <v>463</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>376</v>
+        <v>386</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
-        <v>377</v>
+        <v>387</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>38</v>
@@ -9320,7 +9386,7 @@
         <v>38</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>39</v>
@@ -9338,7 +9404,7 @@
         <v>38</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>38</v>
@@ -9349,10 +9415,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>454</v>
+        <v>464</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>379</v>
+        <v>389</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9378,10 +9444,10 @@
         <v>145</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -9461,10 +9527,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>455</v>
+        <v>465</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>381</v>
+        <v>391</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9493,7 +9559,7 @@
         <v>96</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="N67" t="s" s="2">
         <v>98</v>
@@ -9537,7 +9603,7 @@
         <v>154</v>
       </c>
       <c r="AC67" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AD67" t="s" s="2">
         <v>38</v>
@@ -9575,10 +9641,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>456</v>
+        <v>466</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9604,16 +9670,16 @@
         <v>69</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>385</v>
+        <v>395</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>386</v>
+        <v>396</v>
       </c>
       <c r="O68" t="s" s="2">
-        <v>387</v>
+        <v>397</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>38</v>
@@ -9638,13 +9704,13 @@
         <v>38</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>388</v>
+        <v>398</v>
       </c>
       <c r="Z68" t="s" s="2">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>38</v>
@@ -9662,7 +9728,7 @@
         <v>38</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>39</v>
@@ -9680,7 +9746,7 @@
         <v>92</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>391</v>
+        <v>401</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>38</v>
@@ -9691,10 +9757,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>457</v>
+        <v>467</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>393</v>
+        <v>403</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9717,19 +9783,19 @@
         <v>50</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>345</v>
+        <v>355</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>394</v>
+        <v>404</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>395</v>
+        <v>405</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="O69" t="s" s="2">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>38</v>
@@ -9754,13 +9820,13 @@
         <v>38</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>38</v>
@@ -9778,7 +9844,7 @@
         <v>38</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>39</v>
@@ -9793,10 +9859,10 @@
         <v>61</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>402</v>
+        <v>412</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>391</v>
+        <v>401</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>38</v>
@@ -9807,10 +9873,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>458</v>
+        <v>468</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>404</v>
+        <v>414</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9836,23 +9902,23 @@
         <v>63</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>459</v>
+        <v>469</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>460</v>
+        <v>470</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>461</v>
+        <v>471</v>
       </c>
       <c r="O70" t="s" s="2">
-        <v>408</v>
+        <v>418</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>38</v>
       </c>
       <c r="Q70" s="2"/>
       <c r="R70" t="s" s="2">
-        <v>462</v>
+        <v>472</v>
       </c>
       <c r="S70" t="s" s="2">
         <v>38</v>
@@ -9894,7 +9960,7 @@
         <v>38</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>409</v>
+        <v>419</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>39</v>
@@ -9909,13 +9975,13 @@
         <v>61</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>411</v>
+        <v>421</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>412</v>
+        <v>422</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>38</v>
@@ -9923,10 +9989,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>463</v>
+        <v>473</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>414</v>
+        <v>424</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -9952,13 +10018,13 @@
         <v>145</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>453</v>
+        <v>463</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>416</v>
+        <v>426</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>453</v>
+        <v>463</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -10008,7 +10074,7 @@
         <v>38</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>418</v>
+        <v>428</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>39</v>
@@ -10023,13 +10089,13 @@
         <v>61</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>419</v>
+        <v>429</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>38</v>
@@ -10037,10 +10103,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>464</v>
+        <v>474</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10063,13 +10129,13 @@
         <v>50</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>423</v>
+        <v>433</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>424</v>
+        <v>434</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -10120,7 +10186,7 @@
         <v>38</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>425</v>
+        <v>435</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>39</v>
@@ -10135,13 +10201,13 @@
         <v>61</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>426</v>
+        <v>436</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>427</v>
+        <v>437</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>38</v>
@@ -10149,10 +10215,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>465</v>
+        <v>475</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>429</v>
+        <v>439</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10175,16 +10241,16 @@
         <v>50</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>430</v>
+        <v>440</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>431</v>
+        <v>441</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>432</v>
+        <v>442</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>433</v>
+        <v>443</v>
       </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
@@ -10234,7 +10300,7 @@
         <v>38</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>434</v>
+        <v>444</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>39</v>
@@ -10249,13 +10315,13 @@
         <v>61</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>435</v>
+        <v>445</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>436</v>
+        <v>446</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>437</v>
+        <v>447</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>38</v>
@@ -10263,10 +10329,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>466</v>
+        <v>476</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10289,13 +10355,13 @@
         <v>38</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>345</v>
+        <v>355</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>439</v>
+        <v>449</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -10307,7 +10373,7 @@
         <v>38</v>
       </c>
       <c r="S74" t="s" s="2">
-        <v>467</v>
+        <v>477</v>
       </c>
       <c r="T74" t="s" s="2">
         <v>38</v>
@@ -10322,11 +10388,11 @@
         <v>38</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Y74" s="2"/>
       <c r="Z74" t="s" s="2">
-        <v>441</v>
+        <v>451</v>
       </c>
       <c r="AA74" t="s" s="2">
         <v>38</v>
@@ -10344,7 +10410,7 @@
         <v>38</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>49</v>
@@ -10362,10 +10428,10 @@
         <v>38</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>38</v>
@@ -10373,10 +10439,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>468</v>
+        <v>478</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>353</v>
+        <v>363</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10399,17 +10465,17 @@
         <v>38</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>354</v>
+        <v>364</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>443</v>
+        <v>453</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
-        <v>444</v>
+        <v>454</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>38</v>
@@ -10458,7 +10524,7 @@
         <v>38</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>353</v>
+        <v>363</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>39</v>
@@ -10476,10 +10542,10 @@
         <v>38</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>359</v>
+        <v>369</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>38</v>
@@ -10487,10 +10553,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>469</v>
+        <v>479</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10513,13 +10579,13 @@
         <v>38</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>430</v>
+        <v>440</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>446</v>
+        <v>456</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
@@ -10570,7 +10636,7 @@
         <v>38</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>39</v>
@@ -10588,7 +10654,7 @@
         <v>38</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>365</v>
+        <v>375</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>38</v>
@@ -10599,10 +10665,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>470</v>
+        <v>480</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>470</v>
+        <v>480</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10625,19 +10691,19 @@
         <v>38</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>345</v>
+        <v>355</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>471</v>
+        <v>481</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>472</v>
+        <v>482</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>473</v>
+        <v>483</v>
       </c>
       <c r="O77" t="s" s="2">
-        <v>474</v>
+        <v>484</v>
       </c>
       <c r="P77" t="s" s="2">
         <v>38</v>
@@ -10686,7 +10752,7 @@
         <v>38</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>470</v>
+        <v>480</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>39</v>
@@ -10701,13 +10767,13 @@
         <v>61</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>475</v>
+        <v>485</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>476</v>
+        <v>486</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>477</v>
+        <v>487</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>38</v>
